--- a/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.79</v>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.23</v>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1612,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.79</v>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1596,14 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.23</v>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1612,14 +1699,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.55</v>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1628,13 +1737,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002759-天际股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.51</v>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.79</v>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1859,14 +1946,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.23</v>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1875,14 +1984,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.55</v>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1891,13 +2022,181 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>
